--- a/outputs-HGR-r202-archive/g__Senegalimassilia_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Senegalimassilia_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,44 +570,44 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000236865_1.fasta</t>
+          <t>label_GCF_000236865_0.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4843569514676715</v>
+        <v>0.1871514985278918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04241138372303613</v>
+        <v>0.06314664116964543</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4732316648092922</v>
+        <v>0.7497018603024629</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4843569514676715</v>
+        <v>0.7497018603024629</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia anaerobia</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000236865_5.fasta</t>
+          <t>label_GCF_000236865_2.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02745282194195095</v>
+        <v>0.1974355523759797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1231599168863795</v>
+        <v>0.1920649991347668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8493872611716695</v>
+        <v>0.6104994484892534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8493872611716695</v>
+        <v>0.6104994484892534</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -618,20 +618,20 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000236865_0.fasta</t>
+          <t>label_GCF_000236865_4.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1871514985278918</v>
+        <v>0.08115224300016145</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06314664116964543</v>
+        <v>0.08382005326057423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7497018603024629</v>
+        <v>0.8350277037392643</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7497018603024629</v>
+        <v>0.8350277037392643</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -642,118 +642,70 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000236865_2.fasta</t>
+          <t>label_GCF_000236865_6.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1974355523759797</v>
+        <v>0.0003438342583894597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1920649991347668</v>
+        <v>0.6677737630176199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6104994484892534</v>
+        <v>0.3318824027239907</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6104994484892534</v>
+        <v>0.6677737630176199</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000236865_4.fasta</t>
+          <t>label_GCF_000236865_7.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08115224300016145</v>
+        <v>0.4995055880370072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08382005326057423</v>
+        <v>0.4998355860712523</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8350277037392643</v>
+        <v>0.0006588258917404635</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8350277037392643</v>
+        <v>0.4998355860712523</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000236865_6.fasta</t>
+          <t>label_GCF_000236865_3.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003438342583894597</v>
+        <v>0.1188216725426968</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6677737630176199</v>
+        <v>0.05002123906064567</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3318824027239907</v>
+        <v>0.8311570883966575</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6677737630176199</v>
+        <v>0.8311570883966575</v>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000236865_7.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.4995055880370072</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4998355860712523</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0006588258917404635</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.4998355860712523</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000236865_3.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1188216725426968</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05002123906064567</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8311570883966575</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8311570883966575</v>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>s__Senegalimassilia sp900550055</t>
         </is>
@@ -770,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,20 +1221,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_11.fasta</t>
+          <t>label_UMGS679_2.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04699667056816343</v>
+        <v>0.05829675980921763</v>
       </c>
       <c r="C21" t="n">
-        <v>0.711774388773821</v>
+        <v>0.9010007058472708</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2412289406580155</v>
+        <v>0.04070253434351159</v>
       </c>
       <c r="E21" t="n">
-        <v>0.711774388773821</v>
+        <v>0.9010007058472708</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1293,20 +1245,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_28.fasta</t>
+          <t>label_UMGS679_20.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.002183263206378892</v>
+        <v>0.02728778079946196</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8184068939293639</v>
+        <v>0.9136350904895629</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1794098428642572</v>
+        <v>0.05907712871097506</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8184068939293639</v>
+        <v>0.9136350904895629</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1317,20 +1269,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_31.fasta</t>
+          <t>label_UMGS679_24.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.001834947872558833</v>
+        <v>0.04388681453594768</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9065728391046316</v>
+        <v>0.8862636412441751</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09159221302280951</v>
+        <v>0.06984954421987702</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9065728391046316</v>
+        <v>0.8862636412441751</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1341,20 +1293,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_35.fasta</t>
+          <t>label_UMGS679_34.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.002038406542128525</v>
+        <v>0.02368043979514892</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5540621223479595</v>
+        <v>0.89897661970287</v>
       </c>
       <c r="D24" t="n">
-        <v>0.443899471109912</v>
+        <v>0.07734294050198108</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5540621223479595</v>
+        <v>0.89897661970287</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1365,20 +1317,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_42.fasta</t>
+          <t>label_UMGS679_39.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001380445022647</v>
+        <v>0.02411878956387499</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8347598141722729</v>
+        <v>0.9245200422988556</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1638597408050802</v>
+        <v>0.05136116813726946</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8347598141722729</v>
+        <v>0.9245200422988556</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1389,20 +1341,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_47.fasta</t>
+          <t>label_UMGS679_41.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001474922406943552</v>
+        <v>0.01980239095872427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8100753107147166</v>
+        <v>0.8583453539908554</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1884497668783398</v>
+        <v>0.1218522550504203</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8100753107147166</v>
+        <v>0.8583453539908554</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1413,44 +1365,44 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_49.fasta</t>
+          <t>label_UMGS679_43.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001233497326264782</v>
+        <v>0.0272488175128469</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2794341529943908</v>
+        <v>0.8806211200613561</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7193323496793443</v>
+        <v>0.09213006242579685</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7193323496793443</v>
+        <v>0.8806211200613561</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_60.fasta</t>
+          <t>label_UMGS679_50.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0009629030144828787</v>
+        <v>0.02421279037148659</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7101359714497567</v>
+        <v>0.8989816026881143</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2889011255357605</v>
+        <v>0.07680560694039912</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7101359714497567</v>
+        <v>0.8989816026881143</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1461,44 +1413,44 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_61.fasta</t>
+          <t>label_UMGS679_53.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001046721483471893</v>
+        <v>0.02428362883414805</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4258261879276515</v>
+        <v>0.7813858339971917</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5731270905888766</v>
+        <v>0.1943305371686601</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5731270905888766</v>
+        <v>0.7813858339971917</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_67.fasta</t>
+          <t>label_UMGS679_54.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00537404328023799</v>
+        <v>0.0216888443593258</v>
       </c>
       <c r="C30" t="n">
-        <v>0.617479360270856</v>
+        <v>0.5325797800678191</v>
       </c>
       <c r="D30" t="n">
-        <v>0.377146596448906</v>
+        <v>0.4457313755728551</v>
       </c>
       <c r="E30" t="n">
-        <v>0.617479360270856</v>
+        <v>0.5325797800678191</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1509,20 +1461,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_76.fasta</t>
+          <t>label_UMGS679_57.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2437806773465434</v>
+        <v>0.01629290321226659</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5740841442049568</v>
+        <v>0.5370053560842203</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1821351784484998</v>
+        <v>0.4467017407035132</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5740841442049568</v>
+        <v>0.5370053560842203</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1533,20 +1485,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_2.fasta</t>
+          <t>label_UMGS679_59.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.05829675980921763</v>
+        <v>0.02718592350583096</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9010007058472708</v>
+        <v>0.7641441177784615</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04070253434351159</v>
+        <v>0.2086699587157076</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9010007058472708</v>
+        <v>0.7641441177784615</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1557,20 +1509,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_20.fasta</t>
+          <t>label_UMGS679_64.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02728778079946196</v>
+        <v>0.1000619813495342</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9136350904895629</v>
+        <v>0.7469173848762615</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05907712871097506</v>
+        <v>0.1530206337742044</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9136350904895629</v>
+        <v>0.7469173848762615</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1581,44 +1533,44 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_24.fasta</t>
+          <t>label_UMGS679_65.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04388681453594768</v>
+        <v>0.03256242881236207</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8862636412441751</v>
+        <v>0.3586936566950096</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06984954421987702</v>
+        <v>0.6087439144926282</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8862636412441751</v>
+        <v>0.6087439144926282</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_34.fasta</t>
+          <t>label_UMGS679_74.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02368043979514892</v>
+        <v>0.1059034489325243</v>
       </c>
       <c r="C35" t="n">
-        <v>0.89897661970287</v>
+        <v>0.4686277076428632</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07734294050198108</v>
+        <v>0.4254688434246126</v>
       </c>
       <c r="E35" t="n">
-        <v>0.89897661970287</v>
+        <v>0.4686277076428632</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1629,20 +1581,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_39.fasta</t>
+          <t>label_UMGS679_9.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02411878956387499</v>
+        <v>0.02680792230460098</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9245200422988556</v>
+        <v>0.9455671518365213</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05136116813726946</v>
+        <v>0.02762492585887765</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9245200422988556</v>
+        <v>0.9455671518365213</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1653,20 +1605,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_41.fasta</t>
+          <t>label_UMGS679_12.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01980239095872427</v>
+        <v>0.006902959184316973</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8583453539908554</v>
+        <v>0.9292239198839195</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1218522550504203</v>
+        <v>0.06387312093176348</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8583453539908554</v>
+        <v>0.9292239198839195</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1677,20 +1629,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_43.fasta</t>
+          <t>label_UMGS679_13.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0272488175128469</v>
+        <v>0.004733506036250771</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8806211200613561</v>
+        <v>0.9676947212578619</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09213006242579685</v>
+        <v>0.02757177270588735</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8806211200613561</v>
+        <v>0.9676947212578619</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1701,20 +1653,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_50.fasta</t>
+          <t>label_UMGS679_37.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02421279037148659</v>
+        <v>0.006131481051236499</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8989816026881143</v>
+        <v>0.878595995834294</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07680560694039912</v>
+        <v>0.1152725231144696</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8989816026881143</v>
+        <v>0.878595995834294</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1725,20 +1677,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_53.fasta</t>
+          <t>label_UMGS679_4.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02428362883414805</v>
+        <v>0.01364319916820579</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7813858339971917</v>
+        <v>0.9494508014065066</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1943305371686601</v>
+        <v>0.03690599942528747</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7813858339971917</v>
+        <v>0.9494508014065066</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1749,20 +1701,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_54.fasta</t>
+          <t>label_UMGS679_44.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0216888443593258</v>
+        <v>0.006532627766262876</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5325797800678191</v>
+        <v>0.9219486059344582</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4457313755728551</v>
+        <v>0.07151876629927902</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5325797800678191</v>
+        <v>0.9219486059344582</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1773,20 +1725,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_57.fasta</t>
+          <t>label_UMGS679_45.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01629290321226659</v>
+        <v>0.005243566525730201</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5370053560842203</v>
+        <v>0.8907340139957446</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4467017407035132</v>
+        <v>0.1040224194785251</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5370053560842203</v>
+        <v>0.8907340139957446</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1797,20 +1749,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_59.fasta</t>
+          <t>label_UMGS679_48.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02718592350583096</v>
+        <v>0.007212728318603588</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7641441177784615</v>
+        <v>0.8629835198612219</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2086699587157076</v>
+        <v>0.1298037518201746</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7641441177784615</v>
+        <v>0.8629835198612219</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1821,20 +1773,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_64.fasta</t>
+          <t>label_UMGS679_51.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1000619813495342</v>
+        <v>0.005616773510629354</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7469173848762615</v>
+        <v>0.6632402347777161</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1530206337742044</v>
+        <v>0.3311429917116546</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7469173848762615</v>
+        <v>0.6632402347777161</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1845,68 +1797,68 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_65.fasta</t>
+          <t>label_UMGS679_56.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.03256242881236207</v>
+        <v>0.006586639433275145</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3586936566950096</v>
+        <v>0.9038489431268908</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6087439144926282</v>
+        <v>0.089564417439834</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6087439144926282</v>
+        <v>0.9038489431268908</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_74.fasta</t>
+          <t>label_UMGS679_62.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1059034489325243</v>
+        <v>0.2746289083744372</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4686277076428632</v>
+        <v>0.3487392706426269</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4254688434246126</v>
+        <v>0.376631820982936</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4686277076428632</v>
+        <v>0.376631820982936</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_9.fasta</t>
+          <t>label_UMGS679_63.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02680792230460098</v>
+        <v>0.005743082546718002</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9455671518365213</v>
+        <v>0.6370315755844994</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02762492585887765</v>
+        <v>0.3572253418687827</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9455671518365213</v>
+        <v>0.6370315755844994</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1917,20 +1869,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_12.fasta</t>
+          <t>label_UMGS679_69.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006902959184316973</v>
+        <v>0.03467661882245114</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9292239198839195</v>
+        <v>0.7226905296700142</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06387312093176348</v>
+        <v>0.2426328515075346</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9292239198839195</v>
+        <v>0.7226905296700142</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1941,20 +1893,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_13.fasta</t>
+          <t>label_UMGS679_72.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.004733506036250771</v>
+        <v>0.07384137504406575</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9676947212578619</v>
+        <v>0.6278669935672104</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02757177270588735</v>
+        <v>0.2982916313887238</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9676947212578619</v>
+        <v>0.6278669935672104</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1965,20 +1917,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_37.fasta</t>
+          <t>label_UMGS679_1.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006131481051236499</v>
+        <v>0.0252344403873338</v>
       </c>
       <c r="C50" t="n">
-        <v>0.878595995834294</v>
+        <v>0.9373359298974607</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1152725231144696</v>
+        <v>0.03742962971520548</v>
       </c>
       <c r="E50" t="n">
-        <v>0.878595995834294</v>
+        <v>0.9373359298974607</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1989,20 +1941,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_4.fasta</t>
+          <t>label_UMGS679_10.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01364319916820579</v>
+        <v>0.01474108940673423</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9494508014065066</v>
+        <v>0.9364389235840238</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03690599942528747</v>
+        <v>0.04881998700924185</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9494508014065066</v>
+        <v>0.9364389235840238</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2013,20 +1965,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_44.fasta</t>
+          <t>label_UMGS679_16.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.006532627766262876</v>
+        <v>0.03577076441807401</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9219486059344582</v>
+        <v>0.763526135210383</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07151876629927902</v>
+        <v>0.200703100371543</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9219486059344582</v>
+        <v>0.763526135210383</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2037,20 +1989,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_45.fasta</t>
+          <t>label_UMGS679_17.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005243566525730201</v>
+        <v>0.02514675201182163</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8907340139957446</v>
+        <v>0.8296923805462663</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1040224194785251</v>
+        <v>0.1451608674419121</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8907340139957446</v>
+        <v>0.8296923805462663</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2061,20 +2013,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_48.fasta</t>
+          <t>label_UMGS679_21.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.007212728318603588</v>
+        <v>0.01373175661145039</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8629835198612219</v>
+        <v>0.8878908159641133</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1298037518201746</v>
+        <v>0.09837742742443627</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8629835198612219</v>
+        <v>0.8878908159641133</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2085,20 +2037,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_51.fasta</t>
+          <t>label_UMGS679_22.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.005616773510629354</v>
+        <v>0.01386509895830176</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6632402347777161</v>
+        <v>0.6939655799447423</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3311429917116546</v>
+        <v>0.292169321096956</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6632402347777161</v>
+        <v>0.6939655799447423</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2109,68 +2061,68 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_56.fasta</t>
+          <t>label_UMGS679_23.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.006586639433275145</v>
+        <v>0.04549214248779772</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9038489431268908</v>
+        <v>0.4407982553827055</v>
       </c>
       <c r="D56" t="n">
-        <v>0.089564417439834</v>
+        <v>0.5137096021294968</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9038489431268908</v>
+        <v>0.5137096021294968</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_62.fasta</t>
+          <t>label_UMGS679_25.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2746289083744372</v>
+        <v>0.01168312218667608</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3487392706426269</v>
+        <v>0.9436430781664109</v>
       </c>
       <c r="D57" t="n">
-        <v>0.376631820982936</v>
+        <v>0.04467379964691311</v>
       </c>
       <c r="E57" t="n">
-        <v>0.376631820982936</v>
+        <v>0.9436430781664109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_63.fasta</t>
+          <t>label_UMGS679_3.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.005743082546718002</v>
+        <v>0.0391544945418111</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6370315755844994</v>
+        <v>0.8298819991698997</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3572253418687827</v>
+        <v>0.1309635062882893</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6370315755844994</v>
+        <v>0.8298819991698997</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2181,20 +2133,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_69.fasta</t>
+          <t>label_UMGS679_30.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03467661882245114</v>
+        <v>0.01792412772364077</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7226905296700142</v>
+        <v>0.8253040774346533</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2426328515075346</v>
+        <v>0.1567717948417058</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7226905296700142</v>
+        <v>0.8253040774346533</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2205,20 +2157,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_72.fasta</t>
+          <t>label_UMGS679_5.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.07384137504406575</v>
+        <v>0.01758221114302858</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6278669935672104</v>
+        <v>0.9518563867021274</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2982916313887238</v>
+        <v>0.03056140215484402</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6278669935672104</v>
+        <v>0.9518563867021274</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2229,20 +2181,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_1.fasta</t>
+          <t>label_UMGS679_52.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0252344403873338</v>
+        <v>0.008943206598619023</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9373359298974607</v>
+        <v>0.940002650577775</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03742962971520548</v>
+        <v>0.05105414282360599</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9373359298974607</v>
+        <v>0.940002650577775</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2253,20 +2205,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_10.fasta</t>
+          <t>label_UMGS679_58.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01474108940673423</v>
+        <v>0.01245935112851381</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9364389235840238</v>
+        <v>0.8136992368335934</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04881998700924185</v>
+        <v>0.1738414120378928</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9364389235840238</v>
+        <v>0.8136992368335934</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2277,20 +2229,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_16.fasta</t>
+          <t>label_UMGS679_6.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03577076441807401</v>
+        <v>0.01461628313473983</v>
       </c>
       <c r="C63" t="n">
-        <v>0.763526135210383</v>
+        <v>0.941146376264095</v>
       </c>
       <c r="D63" t="n">
-        <v>0.200703100371543</v>
+        <v>0.04423734060116521</v>
       </c>
       <c r="E63" t="n">
-        <v>0.763526135210383</v>
+        <v>0.941146376264095</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2301,44 +2253,44 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_17.fasta</t>
+          <t>label_UMGS679_68.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02514675201182163</v>
+        <v>0.01977218802845231</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8296923805462663</v>
+        <v>0.40100941190112</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1451608674419121</v>
+        <v>0.5792184000704277</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8296923805462663</v>
+        <v>0.5792184000704277</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_21.fasta</t>
+          <t>label_UMGS679_7.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01373175661145039</v>
+        <v>0.01667619653121126</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8878908159641133</v>
+        <v>0.957527388697085</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09837742742443627</v>
+        <v>0.02579641477170378</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8878908159641133</v>
+        <v>0.957527388697085</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2349,20 +2301,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_22.fasta</t>
+          <t>label_UMGS679_70.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01386509895830176</v>
+        <v>0.109887378722681</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6939655799447423</v>
+        <v>0.6933216304939424</v>
       </c>
       <c r="D66" t="n">
-        <v>0.292169321096956</v>
+        <v>0.1967909907833768</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6939655799447423</v>
+        <v>0.6933216304939424</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2373,116 +2325,116 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_23.fasta</t>
+          <t>label_UMGS679_73.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.04549214248779772</v>
+        <v>0.08684840851956119</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4407982553827055</v>
+        <v>0.5925075168350015</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5137096021294968</v>
+        <v>0.3206440746454374</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5137096021294968</v>
+        <v>0.5925075168350015</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_25.fasta</t>
+          <t>label_UMGS679_77.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01168312218667608</v>
+        <v>0.3522865934775515</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9436430781664109</v>
+        <v>0.04993472165740413</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04467379964691311</v>
+        <v>0.5977786848650444</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9436430781664109</v>
+        <v>0.5977786848650444</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_3.fasta</t>
+          <t>label_UMGS679_78.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0391544945418111</v>
+        <v>0.3088669484600868</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8298819991698997</v>
+        <v>0.2891323855049269</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1309635062882893</v>
+        <v>0.4020006660349862</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8298819991698997</v>
+        <v>0.4020006660349862</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_30.fasta</t>
+          <t>label_UMGS679_8.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01792412772364077</v>
+        <v>0.04704103192932062</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8253040774346533</v>
+        <v>0.2892518740191342</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1567717948417058</v>
+        <v>0.6637070940515453</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8253040774346533</v>
+        <v>0.6637070940515453</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_5.fasta</t>
+          <t>label_UMGS679_0.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01758221114302858</v>
+        <v>0.04418383849328559</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9518563867021274</v>
+        <v>0.9326178170378853</v>
       </c>
       <c r="D71" t="n">
-        <v>0.03056140215484402</v>
+        <v>0.02319834446882913</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9518563867021274</v>
+        <v>0.9326178170378853</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2493,20 +2445,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_52.fasta</t>
+          <t>label_UMGS679_14.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.008943206598619023</v>
+        <v>0.03521420189247108</v>
       </c>
       <c r="C72" t="n">
-        <v>0.940002650577775</v>
+        <v>0.6122372921338647</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05105414282360599</v>
+        <v>0.3525485059736643</v>
       </c>
       <c r="E72" t="n">
-        <v>0.940002650577775</v>
+        <v>0.6122372921338647</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2517,20 +2469,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_58.fasta</t>
+          <t>label_UMGS679_15.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01245935112851381</v>
+        <v>0.03195268491615302</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8136992368335934</v>
+        <v>0.8610804647786998</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1738414120378928</v>
+        <v>0.1069668503051472</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8136992368335934</v>
+        <v>0.8610804647786998</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2541,20 +2493,20 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_6.fasta</t>
+          <t>label_UMGS679_18.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01461628313473983</v>
+        <v>0.03238475032941333</v>
       </c>
       <c r="C74" t="n">
-        <v>0.941146376264095</v>
+        <v>0.8673564631716687</v>
       </c>
       <c r="D74" t="n">
-        <v>0.04423734060116521</v>
+        <v>0.1002587864989179</v>
       </c>
       <c r="E74" t="n">
-        <v>0.941146376264095</v>
+        <v>0.8673564631716687</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2565,44 +2517,44 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_68.fasta</t>
+          <t>label_UMGS679_19.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01977218802845231</v>
+        <v>0.03230823404584151</v>
       </c>
       <c r="C75" t="n">
-        <v>0.40100941190112</v>
+        <v>0.88222589752081</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5792184000704277</v>
+        <v>0.0854658684333485</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5792184000704277</v>
+        <v>0.88222589752081</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_7.fasta</t>
+          <t>label_UMGS679_26.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01667619653121126</v>
+        <v>0.02809323915326879</v>
       </c>
       <c r="C76" t="n">
-        <v>0.957527388697085</v>
+        <v>0.8356015732935701</v>
       </c>
       <c r="D76" t="n">
-        <v>0.02579641477170378</v>
+        <v>0.1363051875531612</v>
       </c>
       <c r="E76" t="n">
-        <v>0.957527388697085</v>
+        <v>0.8356015732935701</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2613,20 +2565,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_70.fasta</t>
+          <t>label_UMGS679_27.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.109887378722681</v>
+        <v>0.02901270100491045</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6933216304939424</v>
+        <v>0.8159121757188341</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1967909907833768</v>
+        <v>0.1550751232762555</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6933216304939424</v>
+        <v>0.8159121757188341</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2637,20 +2589,20 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_73.fasta</t>
+          <t>label_UMGS679_29.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.08684840851956119</v>
+        <v>0.02873761481479991</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5925075168350015</v>
+        <v>0.8874284117680223</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3206440746454374</v>
+        <v>0.0838339734171778</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5925075168350015</v>
+        <v>0.8874284117680223</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2661,92 +2613,92 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_77.fasta</t>
+          <t>label_UMGS679_32.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3522865934775515</v>
+        <v>0.03535811287791277</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04993472165740413</v>
+        <v>0.8216637031175047</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5977786848650444</v>
+        <v>0.1429781840045825</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5977786848650444</v>
+        <v>0.8216637031175047</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_78.fasta</t>
+          <t>label_UMGS679_33.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3088669484600868</v>
+        <v>0.02374354342581741</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2891323855049269</v>
+        <v>0.9141595382085013</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4020006660349862</v>
+        <v>0.06209691836568138</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4020006660349862</v>
+        <v>0.9141595382085013</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_8.fasta</t>
+          <t>label_UMGS679_36.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.04704103192932062</v>
+        <v>0.03107202452155537</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2892518740191342</v>
+        <v>0.8836235016065177</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6637070940515453</v>
+        <v>0.08530447387192698</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6637070940515453</v>
+        <v>0.8836235016065177</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_0.fasta</t>
+          <t>label_UMGS679_38.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.04418383849328559</v>
+        <v>0.05393605544939455</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9326178170378853</v>
+        <v>0.5845913821777774</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02319834446882913</v>
+        <v>0.3614725623728281</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9326178170378853</v>
+        <v>0.5845913821777774</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2757,20 +2709,20 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_14.fasta</t>
+          <t>label_UMGS679_40.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.03521420189247108</v>
+        <v>0.03010563172868565</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6122372921338647</v>
+        <v>0.8021764355980131</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3525485059736643</v>
+        <v>0.1677179326733012</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6122372921338647</v>
+        <v>0.8021764355980131</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2781,20 +2733,20 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_15.fasta</t>
+          <t>label_UMGS679_46.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.03195268491615302</v>
+        <v>0.03215063308545764</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8610804647786998</v>
+        <v>0.6768411818673103</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1069668503051472</v>
+        <v>0.291008185047232</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8610804647786998</v>
+        <v>0.6768411818673103</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2805,20 +2757,20 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_18.fasta</t>
+          <t>label_UMGS679_55.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.03238475032941333</v>
+        <v>0.02481856805750369</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8673564631716687</v>
+        <v>0.845284385806009</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1002587864989179</v>
+        <v>0.1298970461364873</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8673564631716687</v>
+        <v>0.845284385806009</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2829,44 +2781,44 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_19.fasta</t>
+          <t>label_UMGS679_66.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.03230823404584151</v>
+        <v>0.03518445119331739</v>
       </c>
       <c r="C86" t="n">
-        <v>0.88222589752081</v>
+        <v>0.4686228939879488</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0854658684333485</v>
+        <v>0.4961926548187338</v>
       </c>
       <c r="E86" t="n">
-        <v>0.88222589752081</v>
+        <v>0.4961926548187338</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_26.fasta</t>
+          <t>label_UMGS679_71.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02809323915326879</v>
+        <v>0.07736412241947734</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8356015732935701</v>
+        <v>0.6630795518044945</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1363051875531612</v>
+        <v>0.2595563257760281</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8356015732935701</v>
+        <v>0.6630795518044945</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2877,20 +2829,20 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_27.fasta</t>
+          <t>label_UMGS679_75.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02901270100491045</v>
+        <v>0.2024909071866039</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8159121757188341</v>
+        <v>0.5780108307966543</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1550751232762555</v>
+        <v>0.2194982620167419</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8159121757188341</v>
+        <v>0.5780108307966543</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2901,286 +2853,22 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_29.fasta</t>
+          <t>label_UMGS679_79.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02873761481479991</v>
+        <v>0.3394295937470884</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8874284117680223</v>
+        <v>0.6267745278409923</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0838339734171778</v>
+        <v>0.03379587841191926</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8874284117680223</v>
+        <v>0.6267745278409923</v>
       </c>
       <c r="F89" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_32.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.03535811287791277</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.8216637031175047</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.1429781840045825</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.8216637031175047</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_33.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.02374354342581741</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.9141595382085013</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.06209691836568138</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.9141595382085013</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_36.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.03107202452155537</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.8836235016065177</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.08530447387192698</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.8836235016065177</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_38.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.05393605544939455</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.5845913821777774</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.3614725623728281</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.5845913821777774</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_40.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.03010563172868565</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.8021764355980131</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.1677179326733012</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.8021764355980131</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_46.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.03215063308545764</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.6768411818673103</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.291008185047232</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.6768411818673103</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_55.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.02481856805750369</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.845284385806009</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.1298970461364873</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.845284385806009</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_66.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.03518445119331739</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.4686228939879488</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.4961926548187338</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.4961926548187338</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_71.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.07736412241947734</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.6630795518044945</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.2595563257760281</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.6630795518044945</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_75.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.2024909071866039</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.5780108307966543</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.2194982620167419</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.5780108307966543</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS679_79.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.3394295937470884</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.6267745278409923</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.03379587841191926</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.6267745278409923</v>
-      </c>
-      <c r="F100" t="inlineStr">
         <is>
           <t>s__Senegalimassilia faecalis</t>
         </is>
@@ -3197,7 +2885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3576,92 +3264,92 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_0.fasta</t>
+          <t>label_UMGS1254_10.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4277001293016177</v>
+        <v>0.04697192467085608</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2021363038983514</v>
+        <v>0.1301794307778881</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3701635668000308</v>
+        <v>0.8228486445512558</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4277001293016177</v>
+        <v>0.8228486445512558</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia anaerobia</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_1.fasta</t>
+          <t>label_UMGS1254_12.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1956419004403611</v>
+        <v>0.09344716264584897</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1660647442836373</v>
+        <v>0.5155742860977525</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6382933552760015</v>
+        <v>0.3909785512563987</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6382933552760015</v>
+        <v>0.5155742860977525</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_14.fasta</t>
+          <t>label_UMGS1254_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05508128321427986</v>
+        <v>0.05725084801213459</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4981438927099463</v>
+        <v>0.2975052074874983</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4467748240757738</v>
+        <v>0.645243944500367</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4981438927099463</v>
+        <v>0.645243944500367</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_15.fasta</t>
+          <t>label_UMGS1254_2.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02195719815574436</v>
+        <v>0.06050329497577576</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08787890991506285</v>
+        <v>0.03601077552129617</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8901638919291927</v>
+        <v>0.9034859295029281</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8901638919291927</v>
+        <v>0.9034859295029281</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3672,20 +3360,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_18.fasta</t>
+          <t>label_UMGS1254_25.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04900828767109698</v>
+        <v>0.02654903855817913</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1083154728379227</v>
+        <v>0.2834117889335194</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8426762394909805</v>
+        <v>0.6900391725083014</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8426762394909805</v>
+        <v>0.6900391725083014</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3696,20 +3384,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_20.fasta</t>
+          <t>label_UMGS1254_26.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001210531590500349</v>
+        <v>0.01324573535073234</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02802900349739389</v>
+        <v>0.2790956084036805</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9707604649121058</v>
+        <v>0.7076586562455872</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9707604649121058</v>
+        <v>0.7076586562455872</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3720,20 +3408,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_22.fasta</t>
+          <t>label_UMGS1254_27.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.006540676238204203</v>
+        <v>0.02904087161466123</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09423663800049942</v>
+        <v>0.1905092425972135</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8992226857612964</v>
+        <v>0.7804498857881254</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8992226857612964</v>
+        <v>0.7804498857881254</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -3744,44 +3432,44 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_28.fasta</t>
+          <t>label_UMGS1254_39.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01103068630496278</v>
+        <v>0.02317387405386094</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1593858787124076</v>
+        <v>0.6108170456333101</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8295834349826297</v>
+        <v>0.366009080312829</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8295834349826297</v>
+        <v>0.6108170456333101</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_31.fasta</t>
+          <t>label_UMGS1254_42.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001334874508571903</v>
+        <v>0.01467029776188517</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07262259578010176</v>
+        <v>0.176468172378463</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9260425297113264</v>
+        <v>0.8088615298596519</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9260425297113264</v>
+        <v>0.8088615298596519</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3792,20 +3480,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_33.fasta</t>
+          <t>label_UMGS1254_50.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001360164270777611</v>
+        <v>0.01270244656830371</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1676766428941002</v>
+        <v>0.1699650166171602</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8309631928351222</v>
+        <v>0.8173325368145361</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8309631928351222</v>
+        <v>0.8173325368145361</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3816,20 +3504,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_35.fasta</t>
+          <t>label_UMGS1254_57.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00151941647759464</v>
+        <v>0.01257975465824854</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1235935127677331</v>
+        <v>0.1357826047987897</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8748870707546722</v>
+        <v>0.8516376405429618</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8748870707546722</v>
+        <v>0.8516376405429618</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3840,20 +3528,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_43.fasta</t>
+          <t>label_UMGS1254_61.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0006454610951223045</v>
+        <v>0.01033500878395972</v>
       </c>
       <c r="C27" t="n">
-        <v>0.140981075026933</v>
+        <v>0.2947681176167354</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8583734638779447</v>
+        <v>0.6948968735993049</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8583734638779447</v>
+        <v>0.6948968735993049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3864,20 +3552,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_44.fasta</t>
+          <t>label_UMGS1254_62.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0006167358933181343</v>
+        <v>0.01120513057762779</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1451488861485871</v>
+        <v>0.2483608674749447</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8542343779580948</v>
+        <v>0.7404340019474275</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8542343779580948</v>
+        <v>0.7404340019474275</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3888,20 +3576,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_46.fasta</t>
+          <t>label_UMGS1254_67.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0006285552147051462</v>
+        <v>0.0193649258963354</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1603001492951207</v>
+        <v>0.2929100731438972</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8390712954901741</v>
+        <v>0.6877250009597674</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8390712954901741</v>
+        <v>0.6877250009597674</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3912,20 +3600,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_48.fasta</t>
+          <t>label_UMGS1254_74.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0007412786668387172</v>
+        <v>0.02030954489559722</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2246058954646987</v>
+        <v>0.1182074767738724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7746528258684625</v>
+        <v>0.8614829783305303</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7746528258684625</v>
+        <v>0.8614829783305303</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3936,20 +3624,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_65.fasta</t>
+          <t>label_UMGS1254_75.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0007253613881534309</v>
+        <v>0.01887580040390563</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3674908220095688</v>
+        <v>0.2564532249369737</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6317838166022777</v>
+        <v>0.7246709746591207</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6317838166022777</v>
+        <v>0.7246709746591207</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3960,44 +3648,44 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_66.fasta</t>
+          <t>label_UMGS1254_9.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001250033187595789</v>
+        <v>0.03890915132033981</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3304346003894801</v>
+        <v>0.5105141857446086</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6683153664229241</v>
+        <v>0.4505766629350516</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6683153664229241</v>
+        <v>0.5105141857446086</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_7.fasta</t>
+          <t>label_UMGS1254_11.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06673894799608243</v>
+        <v>0.05353446123547578</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3659926234630662</v>
+        <v>0.06830455493958737</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5672684285408514</v>
+        <v>0.8781609838249368</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5672684285408514</v>
+        <v>0.8781609838249368</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -4008,92 +3696,92 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_72.fasta</t>
+          <t>label_UMGS1254_13.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.005681022625615215</v>
+        <v>0.0102791122507669</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2437909558749539</v>
+        <v>0.541129281318706</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7505280214994309</v>
+        <v>0.4485916064305271</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7505280214994309</v>
+        <v>0.541129281318706</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_73.fasta</t>
+          <t>label_UMGS1254_17.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.005239012366121505</v>
+        <v>0.0323905359125846</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6368008173659877</v>
+        <v>0.04820421511174628</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3579601702678908</v>
+        <v>0.919405248975669</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6368008173659877</v>
+        <v>0.919405248975669</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_76.fasta</t>
+          <t>label_UMGS1254_23.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3745721826547954</v>
+        <v>0.03529743703312135</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5235024316139535</v>
+        <v>0.08061153297313557</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1019253857312512</v>
+        <v>0.884091029993743</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5235024316139535</v>
+        <v>0.884091029993743</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_10.fasta</t>
+          <t>label_UMGS1254_30.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.04697192467085608</v>
+        <v>0.006030583603288798</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1301794307778881</v>
+        <v>0.07212406021939947</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8228486445512558</v>
+        <v>0.9218453561773117</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8228486445512558</v>
+        <v>0.9218453561773117</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -4104,44 +3792,44 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_12.fasta</t>
+          <t>label_UMGS1254_32.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.09344716264584897</v>
+        <v>0.008408710335856355</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5155742860977525</v>
+        <v>0.1644014181175699</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3909785512563987</v>
+        <v>0.8271898715465736</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5155742860977525</v>
+        <v>0.8271898715465736</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_19.fasta</t>
+          <t>label_UMGS1254_36.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.05725084801213459</v>
+        <v>0.009555724973861635</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2975052074874983</v>
+        <v>0.2752257283643669</v>
       </c>
       <c r="D39" t="n">
-        <v>0.645243944500367</v>
+        <v>0.7152185466617715</v>
       </c>
       <c r="E39" t="n">
-        <v>0.645243944500367</v>
+        <v>0.7152185466617715</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -4152,20 +3840,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_2.fasta</t>
+          <t>label_UMGS1254_40.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.06050329497577576</v>
+        <v>0.00714441452554689</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03601077552129617</v>
+        <v>0.1477217339847358</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9034859295029281</v>
+        <v>0.8451338514897173</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9034859295029281</v>
+        <v>0.8451338514897173</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4176,20 +3864,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_25.fasta</t>
+          <t>label_UMGS1254_47.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02654903855817913</v>
+        <v>0.006221376470130001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2834117889335194</v>
+        <v>0.06904381343908124</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6900391725083014</v>
+        <v>0.9247348100907888</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6900391725083014</v>
+        <v>0.9247348100907888</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -4200,20 +3888,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_26.fasta</t>
+          <t>label_UMGS1254_55.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01324573535073234</v>
+        <v>0.004311428872207437</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2790956084036805</v>
+        <v>0.1224182121701093</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7076586562455872</v>
+        <v>0.8732703589576833</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7076586562455872</v>
+        <v>0.8732703589576833</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -4224,20 +3912,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_27.fasta</t>
+          <t>label_UMGS1254_6.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02904087161466123</v>
+        <v>0.07172939354847602</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1905092425972135</v>
+        <v>0.4172225845308428</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7804498857881254</v>
+        <v>0.5110480219206812</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7804498857881254</v>
+        <v>0.5110480219206812</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4248,44 +3936,44 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_39.fasta</t>
+          <t>label_UMGS1254_63.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02317387405386094</v>
+        <v>0.003346958975824535</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6108170456333101</v>
+        <v>0.1017100188937995</v>
       </c>
       <c r="D44" t="n">
-        <v>0.366009080312829</v>
+        <v>0.8949430221303759</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6108170456333101</v>
+        <v>0.8949430221303759</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_42.fasta</t>
+          <t>label_UMGS1254_64.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01467029776188517</v>
+        <v>0.003867961614623367</v>
       </c>
       <c r="C45" t="n">
-        <v>0.176468172378463</v>
+        <v>0.4470445786241559</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8088615298596519</v>
+        <v>0.5490874597612208</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8088615298596519</v>
+        <v>0.5490874597612208</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -4296,68 +3984,68 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_50.fasta</t>
+          <t>label_UMGS1254_71.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01270244656830371</v>
+        <v>0.0391205772379313</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1699650166171602</v>
+        <v>0.7824016521860233</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8173325368145361</v>
+        <v>0.1784777705760454</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8173325368145361</v>
+        <v>0.7824016521860233</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_57.fasta</t>
+          <t>label_UMGS1254_79.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01257975465824854</v>
+        <v>0.02730311493858824</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1357826047987897</v>
+        <v>0.5500117616110632</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8516376405429618</v>
+        <v>0.4226851234503485</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8516376405429618</v>
+        <v>0.5500117616110632</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_61.fasta</t>
+          <t>label_UMGS1254_8.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01033500878395972</v>
+        <v>0.07595746098850319</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2947681176167354</v>
+        <v>0.05860105041245387</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6948968735993049</v>
+        <v>0.865441488599043</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6948968735993049</v>
+        <v>0.865441488599043</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -4368,20 +4056,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_62.fasta</t>
+          <t>label_UMGS1254_81.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01120513057762779</v>
+        <v>0.06468277725596935</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2483608674749447</v>
+        <v>0.3257317501668624</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7404340019474275</v>
+        <v>0.6095854725771682</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7404340019474275</v>
+        <v>0.6095854725771682</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -4392,20 +4080,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_67.fasta</t>
+          <t>label_UMGS1254_21.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0193649258963354</v>
+        <v>0.09979744696965151</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2929100731438972</v>
+        <v>0.025925633506094</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6877250009597674</v>
+        <v>0.8742769195242545</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6877250009597674</v>
+        <v>0.8742769195242545</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -4416,20 +4104,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_74.fasta</t>
+          <t>label_UMGS1254_29.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02030954489559722</v>
+        <v>0.05423679892045657</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1182074767738724</v>
+        <v>0.004274885488527629</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8614829783305303</v>
+        <v>0.9414883155910158</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8614829783305303</v>
+        <v>0.9414883155910158</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -4440,20 +4128,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_75.fasta</t>
+          <t>label_UMGS1254_34.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01887580040390563</v>
+        <v>0.04668391706892397</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2564532249369737</v>
+        <v>0.09284910413573001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7246709746591207</v>
+        <v>0.8604669787953462</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7246709746591207</v>
+        <v>0.8604669787953462</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -4464,44 +4152,44 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_9.fasta</t>
+          <t>label_UMGS1254_38.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.03890915132033981</v>
+        <v>0.03231807088867692</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5105141857446086</v>
+        <v>0.02855224693979953</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4505766629350516</v>
+        <v>0.9391296821715235</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5105141857446086</v>
+        <v>0.9391296821715235</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_11.fasta</t>
+          <t>label_UMGS1254_41.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.05353446123547578</v>
+        <v>0.01741339729362171</v>
       </c>
       <c r="C54" t="n">
-        <v>0.06830455493958737</v>
+        <v>0.15898621415789</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8781609838249368</v>
+        <v>0.8236003885484883</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8781609838249368</v>
+        <v>0.8236003885484883</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -4512,44 +4200,44 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_13.fasta</t>
+          <t>label_UMGS1254_45.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0102791122507669</v>
+        <v>0.02459368743103959</v>
       </c>
       <c r="C55" t="n">
-        <v>0.541129281318706</v>
+        <v>0.1453235277160174</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4485916064305271</v>
+        <v>0.8300827848529431</v>
       </c>
       <c r="E55" t="n">
-        <v>0.541129281318706</v>
+        <v>0.8300827848529431</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_17.fasta</t>
+          <t>label_UMGS1254_51.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0323905359125846</v>
+        <v>0.02175717073257895</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04820421511174628</v>
+        <v>0.1514397380199487</v>
       </c>
       <c r="D56" t="n">
-        <v>0.919405248975669</v>
+        <v>0.8268030912474723</v>
       </c>
       <c r="E56" t="n">
-        <v>0.919405248975669</v>
+        <v>0.8268030912474723</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -4560,44 +4248,44 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_23.fasta</t>
+          <t>label_UMGS1254_53.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.03529743703312135</v>
+        <v>0.009839062585504993</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08061153297313557</v>
+        <v>0.6524260961892646</v>
       </c>
       <c r="D57" t="n">
-        <v>0.884091029993743</v>
+        <v>0.3377348412252303</v>
       </c>
       <c r="E57" t="n">
-        <v>0.884091029993743</v>
+        <v>0.6524260961892646</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_30.fasta</t>
+          <t>label_UMGS1254_54.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.006030583603288798</v>
+        <v>0.01815779955141061</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07212406021939947</v>
+        <v>0.2867706992001368</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9218453561773117</v>
+        <v>0.6950715012484525</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9218453561773117</v>
+        <v>0.6950715012484525</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -4608,20 +4296,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_32.fasta</t>
+          <t>label_UMGS1254_56.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.008408710335856355</v>
+        <v>0.02342602566279772</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1644014181175699</v>
+        <v>0.04956500081050526</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8271898715465736</v>
+        <v>0.9270089735266971</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8271898715465736</v>
+        <v>0.9270089735266971</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -4632,20 +4320,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_36.fasta</t>
+          <t>label_UMGS1254_58.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.009555724973861635</v>
+        <v>0.01187322337992954</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2752257283643669</v>
+        <v>0.403615575966444</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7152185466617715</v>
+        <v>0.5845112006536265</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7152185466617715</v>
+        <v>0.5845112006536265</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -4656,20 +4344,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_40.fasta</t>
+          <t>label_UMGS1254_59.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.00714441452554689</v>
+        <v>0.01365062279986889</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1477217339847358</v>
+        <v>0.1624887324578431</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8451338514897173</v>
+        <v>0.823860644742288</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8451338514897173</v>
+        <v>0.823860644742288</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4680,20 +4368,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_47.fasta</t>
+          <t>label_UMGS1254_77.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.006221376470130001</v>
+        <v>0.05223158123177667</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06904381343908124</v>
+        <v>0.4513063014181026</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9247348100907888</v>
+        <v>0.4964621173501207</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9247348100907888</v>
+        <v>0.4964621173501207</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4704,20 +4392,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_55.fasta</t>
+          <t>label_UMGS1254_16.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.004311428872207437</v>
+        <v>0.04795655436602205</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1224182121701093</v>
+        <v>0.05147324314060503</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8732703589576833</v>
+        <v>0.9005702024933729</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8732703589576833</v>
+        <v>0.9005702024933729</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4728,20 +4416,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_6.fasta</t>
+          <t>label_UMGS1254_24.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.07172939354847602</v>
+        <v>0.0423809203070818</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4172225845308428</v>
+        <v>0.1693597281386267</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5110480219206812</v>
+        <v>0.7882593515542915</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5110480219206812</v>
+        <v>0.7882593515542915</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4752,20 +4440,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_63.fasta</t>
+          <t>label_UMGS1254_3.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.003346958975824535</v>
+        <v>0.02182933722262593</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1017100188937995</v>
+        <v>0.01912059784763055</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8949430221303759</v>
+        <v>0.9590500649297435</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8949430221303759</v>
+        <v>0.9590500649297435</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4776,20 +4464,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_64.fasta</t>
+          <t>label_UMGS1254_37.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.003867961614623367</v>
+        <v>0.01608243586019931</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4470445786241559</v>
+        <v>0.1530899074277124</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5490874597612208</v>
+        <v>0.8308276567120882</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5490874597612208</v>
+        <v>0.8308276567120882</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4800,68 +4488,68 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_71.fasta</t>
+          <t>label_UMGS1254_4.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0391205772379313</v>
+        <v>0.1292901298573165</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7824016521860233</v>
+        <v>0.2633692876288136</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1784777705760454</v>
+        <v>0.6073405825138699</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7824016521860233</v>
+        <v>0.6073405825138699</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_79.fasta</t>
+          <t>label_UMGS1254_49.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02730311493858824</v>
+        <v>0.01407803954445744</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5500117616110632</v>
+        <v>0.1232645648231278</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4226851234503485</v>
+        <v>0.8626573956324147</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5500117616110632</v>
+        <v>0.8626573956324147</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia faecalis</t>
+          <t>s__Senegalimassilia sp900550055</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_8.fasta</t>
+          <t>label_UMGS1254_5.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.07595746098850319</v>
+        <v>0.08835128550489026</v>
       </c>
       <c r="C69" t="n">
-        <v>0.05860105041245387</v>
+        <v>0.1752888482878467</v>
       </c>
       <c r="D69" t="n">
-        <v>0.865441488599043</v>
+        <v>0.736359866207263</v>
       </c>
       <c r="E69" t="n">
-        <v>0.865441488599043</v>
+        <v>0.736359866207263</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4872,20 +4560,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_81.fasta</t>
+          <t>label_UMGS1254_52.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.06468277725596935</v>
+        <v>0.01452971497894685</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3257317501668624</v>
+        <v>0.08943705398433147</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6095854725771682</v>
+        <v>0.8960332310367216</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6095854725771682</v>
+        <v>0.8960332310367216</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4896,20 +4584,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_21.fasta</t>
+          <t>label_UMGS1254_60.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.09979744696965151</v>
+        <v>0.01157475878774081</v>
       </c>
       <c r="C71" t="n">
-        <v>0.025925633506094</v>
+        <v>0.2281543562452582</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8742769195242545</v>
+        <v>0.760270884967001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8742769195242545</v>
+        <v>0.760270884967001</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4920,20 +4608,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_29.fasta</t>
+          <t>label_UMGS1254_68.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.05423679892045657</v>
+        <v>0.01693755307308414</v>
       </c>
       <c r="C72" t="n">
-        <v>0.004274885488527629</v>
+        <v>0.1930381758732692</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9414883155910158</v>
+        <v>0.7900242710536466</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9414883155910158</v>
+        <v>0.7900242710536466</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4944,20 +4632,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_34.fasta</t>
+          <t>label_UMGS1254_69.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.04668391706892397</v>
+        <v>0.07312063804004272</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09284910413573001</v>
+        <v>0.07006305878230118</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8604669787953462</v>
+        <v>0.8568163031776561</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8604669787953462</v>
+        <v>0.8568163031776561</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4968,574 +4656,70 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_38.fasta</t>
+          <t>label_UMGS1254_70.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.03231807088867692</v>
+        <v>0.2188558917952296</v>
       </c>
       <c r="C74" t="n">
-        <v>0.02855224693979953</v>
+        <v>0.48035178421182</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9391296821715235</v>
+        <v>0.3007923239929503</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9391296821715235</v>
+        <v>0.48035178421182</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_41.fasta</t>
+          <t>label_UMGS1254_78.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01741339729362171</v>
+        <v>0.1429181184601375</v>
       </c>
       <c r="C75" t="n">
-        <v>0.15898621415789</v>
+        <v>0.6066567560895498</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8236003885484883</v>
+        <v>0.2504251254503127</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8236003885484883</v>
+        <v>0.6066567560895498</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>s__Senegalimassilia sp900550055</t>
+          <t>s__Senegalimassilia faecalis</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1254_45.fasta</t>
+          <t>label_UMGS1254_80.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02459368743103959</v>
+        <v>0.09985939658851146</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1453235277160174</v>
+        <v>0.2003193452244312</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8300827848529431</v>
+        <v>0.6998212581870574</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8300827848529431</v>
+        <v>0.6998212581870574</v>
       </c>
       <c r="F76" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_51.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.02175717073257895</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.1514397380199487</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.8268030912474723</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.8268030912474723</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_53.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.009839062585504993</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.6524260961892646</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.3377348412252303</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.6524260961892646</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_54.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.01815779955141061</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.2867706992001368</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.6950715012484525</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.6950715012484525</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_56.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.02342602566279772</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.04956500081050526</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9270089735266971</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.9270089735266971</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_58.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.01187322337992954</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.403615575966444</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.5845112006536265</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.5845112006536265</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_59.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.01365062279986889</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.1624887324578431</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.823860644742288</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.823860644742288</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_77.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.05223158123177667</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.4513063014181026</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.4964621173501207</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.4964621173501207</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_16.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.04795655436602205</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.05147324314060503</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.9005702024933729</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.9005702024933729</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_24.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.0423809203070818</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.1693597281386267</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.7882593515542915</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.7882593515542915</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_3.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.02182933722262593</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.01912059784763055</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.9590500649297435</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.9590500649297435</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_37.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.01608243586019931</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.1530899074277124</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.8308276567120882</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.8308276567120882</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_4.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.1292901298573165</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.2633692876288136</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.6073405825138699</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.6073405825138699</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_49.fasta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.01407803954445744</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.1232645648231278</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.8626573956324147</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.8626573956324147</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_5.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.08835128550489026</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.1752888482878467</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.736359866207263</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.736359866207263</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_52.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.01452971497894685</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.08943705398433147</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.8960332310367216</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.8960332310367216</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_60.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.01157475878774081</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.2281543562452582</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.760270884967001</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.760270884967001</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_68.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.01693755307308414</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.1930381758732692</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.7900242710536466</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.7900242710536466</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_69.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.07312063804004272</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.07006305878230118</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.8568163031776561</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.8568163031776561</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia sp900550055</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_70.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.2188558917952296</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.48035178421182</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.3007923239929503</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.48035178421182</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_78.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.1429181184601375</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.6066567560895498</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.2504251254503127</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.6066567560895498</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>s__Senegalimassilia faecalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1254_80.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.09985939658851146</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.2003193452244312</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.6998212581870574</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.6998212581870574</v>
-      </c>
-      <c r="F97" t="inlineStr">
         <is>
           <t>s__Senegalimassilia sp900550055</t>
         </is>
